--- a/data/Stock Type.xlsx
+++ b/data/Stock Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showBorderUnselectedTables="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\A249\LUCAS Base Model - Template Dev\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stsimcbmcfs3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0889784-7A69-40E4-A139-AD3A23D386A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC6D57F-EDC1-45F8-BF2D-961BC349E604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29700" yWindow="-4005" windowWidth="14625" windowHeight="14250" firstSheet="2" activeTab="2" xr2:uid="{8D8E115B-043E-401D-857F-212BE60D1A85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{8D8E115B-043E-401D-857F-212BE60D1A85}"/>
   </bookViews>
   <sheets>
     <sheet name="ManifestReferenceTypes" sheetId="4" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>Table</t>
+  </si>
+  <si>
+    <t>Used for baseline flows</t>
+  </si>
+  <si>
+    <t>Used only for transition triggered flows</t>
+  </si>
+  <si>
+    <t>Black Carbon</t>
+  </si>
+  <si>
+    <t>Peat</t>
   </si>
 </sst>
 </file>
@@ -715,11 +727,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6556D3-80AA-4F04-8E2D-8CBCC9DE717B}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,21 +753,33 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -787,58 +811,55 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
@@ -846,7 +867,23 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
